--- a/Kadarkuti_Marton/_ERETTSEGI_GYAKR/23maj22idegen/levelezoverseny.xlsx
+++ b/Kadarkuti_Marton/_ERETTSEGI_GYAKR/23maj22idegen/levelezoverseny.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20416"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28227"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\merkur07\OneDrive - Tatai Református Gimnázium\Dokumentumok\fakt2023\Kadarkuti_Marton\_ERETTSEGI_GYAKR\23maj22idegen\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\fakt2023\fakt2023\Kadarkuti_Marton\_ERETTSEGI_GYAKR\23maj22idegen\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="70" documentId="11_AD4DB114E441178AC67DF4EB5ED2CE86683EDF1E" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{B66578BB-3AB4-44EA-B333-872AC31C75B7}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F8DAFC06-EC1D-40FC-AA3A-4761A3C082AA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="1fordulo" sheetId="1" r:id="rId1"/>
@@ -23,6 +23,17 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
   </extLst>
 </workbook>
 </file>
@@ -127,12 +138,24 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="General&quot; fő&quot;"/>
+  </numFmts>
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="238"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -144,7 +167,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -152,32 +175,76 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="thick">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="thick">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normál" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="3">
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC00000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC00000"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="1">
     <dxf>
       <fill>
         <patternFill>
@@ -467,12 +534,12 @@
       <selection activeCell="F3" sqref="F3:F18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="17.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="17.26953125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -493,7 +560,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -513,7 +580,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>7</v>
       </c>
@@ -534,7 +601,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>8</v>
       </c>
@@ -555,7 +622,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>9</v>
       </c>
@@ -576,7 +643,7 @@
         <v>36.5</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>10</v>
       </c>
@@ -597,7 +664,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>11</v>
       </c>
@@ -618,7 +685,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>12</v>
       </c>
@@ -639,7 +706,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>13</v>
       </c>
@@ -660,7 +727,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>14</v>
       </c>
@@ -681,7 +748,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>15</v>
       </c>
@@ -702,7 +769,7 @@
         <v>39.5</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>16</v>
       </c>
@@ -723,7 +790,7 @@
         <v>37.5</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>17</v>
       </c>
@@ -744,7 +811,7 @@
         <v>38.5</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>18</v>
       </c>
@@ -753,7 +820,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>19</v>
       </c>
@@ -774,7 +841,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>20</v>
       </c>
@@ -795,7 +862,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>21</v>
       </c>
@@ -816,7 +883,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>22</v>
       </c>
@@ -850,12 +917,12 @@
       <selection activeCell="F3" sqref="F3:F18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="17.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="17.26953125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -876,7 +943,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -896,7 +963,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A3" t="str">
         <f>'1fordulo'!A3</f>
         <v>Arany Áron</v>
@@ -918,7 +985,7 @@
         <v>21.5</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A4" t="str">
         <f>'1fordulo'!A4</f>
         <v>Asztalos Amália</v>
@@ -940,7 +1007,7 @@
         <v>23.5</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A5" t="str">
         <f>'1fordulo'!A5</f>
         <v>Balog Barna</v>
@@ -962,7 +1029,7 @@
         <v>17.5</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A6" t="str">
         <f>'1fordulo'!A6</f>
         <v>Esztergom Andrea</v>
@@ -984,7 +1051,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A7" t="str">
         <f>'1fordulo'!A7</f>
         <v>Esztergom Eszter</v>
@@ -1006,7 +1073,7 @@
         <v>38.5</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A8" t="str">
         <f>'1fordulo'!A8</f>
         <v>Farkas Ferenc</v>
@@ -1028,7 +1095,7 @@
         <v>31.5</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A9" t="str">
         <f>'1fordulo'!A9</f>
         <v>Havasi Hedvig</v>
@@ -1038,7 +1105,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A10" t="str">
         <f>'1fordulo'!A10</f>
         <v>Kala Pál</v>
@@ -1060,7 +1127,7 @@
         <v>39.5</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A11" t="str">
         <f>'1fordulo'!A11</f>
         <v>Major Anna</v>
@@ -1082,7 +1149,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A12" t="str">
         <f>'1fordulo'!A12</f>
         <v>Mezei Virág</v>
@@ -1104,7 +1171,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A13" t="str">
         <f>'1fordulo'!A13</f>
         <v>Mustár Márta</v>
@@ -1126,7 +1193,7 @@
         <v>35.5</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A14" t="str">
         <f>'1fordulo'!A14</f>
         <v>Pécsi Péter</v>
@@ -1136,7 +1203,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A15" t="str">
         <f>'1fordulo'!A15</f>
         <v>Reszet Elek</v>
@@ -1158,7 +1225,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A16" t="str">
         <f>'1fordulo'!A16</f>
         <v>Ultra Viola</v>
@@ -1180,7 +1247,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A17" t="str">
         <f>'1fordulo'!A17</f>
         <v>Wincs Eszter</v>
@@ -1202,7 +1269,7 @@
         <v>18.5</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A18" t="str">
         <f>'1fordulo'!A18</f>
         <v>Zöld Piroska</v>
@@ -1237,12 +1304,12 @@
       <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="17.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="17.26953125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1263,7 +1330,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -1283,7 +1350,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A3" t="str">
         <f>'1fordulo'!A3</f>
         <v>Arany Áron</v>
@@ -1305,7 +1372,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A4" t="str">
         <f>'1fordulo'!A4</f>
         <v>Asztalos Amália</v>
@@ -1327,7 +1394,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A5" t="str">
         <f>'1fordulo'!A5</f>
         <v>Balog Barna</v>
@@ -1337,7 +1404,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A6" t="str">
         <f>'1fordulo'!A6</f>
         <v>Esztergom Andrea</v>
@@ -1359,7 +1426,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A7" t="str">
         <f>'1fordulo'!A7</f>
         <v>Esztergom Eszter</v>
@@ -1381,7 +1448,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A8" t="str">
         <f>'1fordulo'!A8</f>
         <v>Farkas Ferenc</v>
@@ -1403,7 +1470,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A9" t="str">
         <f>'1fordulo'!A9</f>
         <v>Havasi Hedvig</v>
@@ -1425,7 +1492,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A10" t="str">
         <f>'1fordulo'!A10</f>
         <v>Kala Pál</v>
@@ -1447,7 +1514,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A11" t="str">
         <f>'1fordulo'!A11</f>
         <v>Major Anna</v>
@@ -1469,7 +1536,7 @@
         <v>37.5</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A12" t="str">
         <f>'1fordulo'!A12</f>
         <v>Mezei Virág</v>
@@ -1491,7 +1558,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A13" t="str">
         <f>'1fordulo'!A13</f>
         <v>Mustár Márta</v>
@@ -1513,7 +1580,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A14" t="str">
         <f>'1fordulo'!A14</f>
         <v>Pécsi Péter</v>
@@ -1523,7 +1590,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A15" t="str">
         <f>'1fordulo'!A15</f>
         <v>Reszet Elek</v>
@@ -1545,7 +1612,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A16" t="str">
         <f>'1fordulo'!A16</f>
         <v>Ultra Viola</v>
@@ -1567,7 +1634,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A17" t="str">
         <f>'1fordulo'!A17</f>
         <v>Wincs Eszter</v>
@@ -1577,7 +1644,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A18" t="str">
         <f>'1fordulo'!A18</f>
         <v>Zöld Piroska</v>
@@ -1608,494 +1675,524 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{571F6E83-5B20-4B3E-95C9-2ECE32E9E2A6}">
   <dimension ref="A1:E31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C23" sqref="C23"/>
+    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
+      <selection sqref="A1:E19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="17.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="17.26953125" bestFit="1" customWidth="1"/>
+    <col min="2" max="5" width="12.6328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+    <row r="1" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1">
+      <c r="B1" s="1">
         <f>'1fordulo'!F1</f>
         <v>40</v>
       </c>
-      <c r="C1">
+      <c r="C1" s="1">
         <f>'2fordulo'!F1</f>
         <v>40</v>
       </c>
-      <c r="D1">
+      <c r="D1" s="1">
         <f>'3fordulo'!F1</f>
         <v>40</v>
       </c>
-      <c r="E1">
-        <f>SUM(B1,D1)</f>
-        <v>80</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+      <c r="E1" s="1">
+        <f>SUM(B1:D1)</f>
+        <v>120</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A2" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D2" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="E2" t="s">
+      <c r="E2" s="3" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" t="str">
+    <row r="3" spans="1:5" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A3" s="2" t="str">
         <f>'1fordulo'!A3</f>
         <v>Arany Áron</v>
       </c>
-      <c r="B3">
+      <c r="B3" s="2">
         <f>'1fordulo'!F3</f>
         <v>38</v>
       </c>
-      <c r="C3">
+      <c r="C3" s="2">
         <f>'2fordulo'!F3</f>
         <v>21.5</v>
       </c>
-      <c r="D3">
+      <c r="D3" s="2">
         <f>'3fordulo'!F3</f>
         <v>31</v>
       </c>
-      <c r="E3">
-        <f>SUM(B3,D3)</f>
-        <v>69</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" t="str">
+      <c r="E3" s="2">
+        <f>SUM(B3:D3)</f>
+        <v>90.5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A4" s="1" t="str">
         <f>'1fordulo'!A4</f>
         <v>Asztalos Amália</v>
       </c>
-      <c r="B4">
+      <c r="B4" s="1">
         <f>'1fordulo'!F4</f>
         <v>31</v>
       </c>
-      <c r="C4">
+      <c r="C4" s="1">
         <f>'2fordulo'!F4</f>
         <v>23.5</v>
       </c>
-      <c r="D4">
+      <c r="D4" s="1">
         <f>'3fordulo'!F4</f>
         <v>29</v>
       </c>
-      <c r="E4">
-        <f t="shared" ref="E4:E18" si="0">SUM(B4,D4)</f>
-        <v>60</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" t="str">
+      <c r="E4" s="1">
+        <f t="shared" ref="E4:E18" si="0">SUM(B4:D4)</f>
+        <v>83.5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A5" s="1" t="str">
         <f>'1fordulo'!A5</f>
         <v>Balog Barna</v>
       </c>
-      <c r="B5">
+      <c r="B5" s="1">
         <f>'1fordulo'!F5</f>
         <v>36.5</v>
       </c>
-      <c r="C5">
+      <c r="C5" s="1">
         <f>'2fordulo'!F5</f>
         <v>17.5</v>
       </c>
-      <c r="D5">
+      <c r="D5" s="1">
         <f>'3fordulo'!F5</f>
         <v>0</v>
       </c>
-      <c r="E5">
-        <f t="shared" si="0"/>
-        <v>36.5</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" t="str">
+      <c r="E5" s="1">
+        <f t="shared" si="0"/>
+        <v>54</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A6" s="1" t="str">
         <f>'1fordulo'!A6</f>
         <v>Esztergom Andrea</v>
       </c>
-      <c r="B6">
+      <c r="B6" s="1">
         <f>'1fordulo'!F6</f>
         <v>40</v>
       </c>
-      <c r="C6">
+      <c r="C6" s="1">
         <f>'2fordulo'!F6</f>
         <v>39</v>
       </c>
-      <c r="D6">
+      <c r="D6" s="1">
         <f>'3fordulo'!F6</f>
         <v>38</v>
       </c>
-      <c r="E6">
-        <f t="shared" si="0"/>
-        <v>78</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" t="str">
+      <c r="E6" s="1">
+        <f t="shared" si="0"/>
+        <v>117</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A7" s="1" t="str">
         <f>'1fordulo'!A7</f>
         <v>Esztergom Eszter</v>
       </c>
-      <c r="B7">
+      <c r="B7" s="1">
         <f>'1fordulo'!F7</f>
         <v>38</v>
       </c>
-      <c r="C7">
+      <c r="C7" s="1">
         <f>'2fordulo'!F7</f>
         <v>38.5</v>
       </c>
-      <c r="D7">
+      <c r="D7" s="1">
         <f>'3fordulo'!F7</f>
         <v>39</v>
       </c>
-      <c r="E7">
-        <f t="shared" si="0"/>
-        <v>77</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" t="str">
+      <c r="E7" s="1">
+        <f t="shared" si="0"/>
+        <v>115.5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A8" s="1" t="str">
         <f>'1fordulo'!A8</f>
         <v>Farkas Ferenc</v>
       </c>
-      <c r="B8">
+      <c r="B8" s="1">
         <f>'1fordulo'!F8</f>
         <v>29</v>
       </c>
-      <c r="C8">
+      <c r="C8" s="1">
         <f>'2fordulo'!F8</f>
         <v>31.5</v>
       </c>
-      <c r="D8">
+      <c r="D8" s="1">
         <f>'3fordulo'!F8</f>
         <v>32</v>
       </c>
-      <c r="E8">
-        <f t="shared" si="0"/>
-        <v>61</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" t="str">
+      <c r="E8" s="1">
+        <f t="shared" si="0"/>
+        <v>92.5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A9" s="1" t="str">
         <f>'1fordulo'!A9</f>
         <v>Havasi Hedvig</v>
       </c>
-      <c r="B9">
+      <c r="B9" s="1">
         <f>'1fordulo'!F9</f>
         <v>37</v>
       </c>
-      <c r="C9">
+      <c r="C9" s="1">
         <f>'2fordulo'!F9</f>
         <v>0</v>
       </c>
-      <c r="D9">
+      <c r="D9" s="1">
         <f>'3fordulo'!F9</f>
         <v>28</v>
       </c>
-      <c r="E9">
+      <c r="E9" s="1">
         <f t="shared" si="0"/>
         <v>65</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" t="str">
+    <row r="10" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A10" s="1" t="str">
         <f>'1fordulo'!A10</f>
         <v>Kala Pál</v>
       </c>
-      <c r="B10">
+      <c r="B10" s="1">
         <f>'1fordulo'!F10</f>
         <v>37</v>
       </c>
-      <c r="C10">
+      <c r="C10" s="1">
         <f>'2fordulo'!F10</f>
         <v>39.5</v>
       </c>
-      <c r="D10">
+      <c r="D10" s="1">
         <f>'3fordulo'!F10</f>
         <v>38</v>
       </c>
-      <c r="E10">
-        <f t="shared" si="0"/>
-        <v>75</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11" t="str">
+      <c r="E10" s="1">
+        <f t="shared" si="0"/>
+        <v>114.5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A11" s="1" t="str">
         <f>'1fordulo'!A11</f>
         <v>Major Anna</v>
       </c>
-      <c r="B11">
+      <c r="B11" s="1">
         <f>'1fordulo'!F11</f>
         <v>39.5</v>
       </c>
-      <c r="C11">
+      <c r="C11" s="1">
         <f>'2fordulo'!F11</f>
         <v>34</v>
       </c>
-      <c r="D11">
+      <c r="D11" s="1">
         <f>'3fordulo'!F11</f>
         <v>37.5</v>
       </c>
-      <c r="E11">
-        <f t="shared" si="0"/>
-        <v>77</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A12" t="str">
+      <c r="E11" s="1">
+        <f t="shared" si="0"/>
+        <v>111</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A12" s="1" t="str">
         <f>'1fordulo'!A12</f>
         <v>Mezei Virág</v>
       </c>
-      <c r="B12">
+      <c r="B12" s="1">
         <f>'1fordulo'!F12</f>
         <v>37.5</v>
       </c>
-      <c r="C12">
+      <c r="C12" s="1">
         <f>'2fordulo'!F12</f>
         <v>19</v>
       </c>
-      <c r="D12">
+      <c r="D12" s="1">
         <f>'3fordulo'!F12</f>
         <v>25</v>
       </c>
-      <c r="E12">
-        <f t="shared" si="0"/>
-        <v>62.5</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A13" t="str">
+      <c r="E12" s="1">
+        <f t="shared" si="0"/>
+        <v>81.5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A13" s="1" t="str">
         <f>'1fordulo'!A13</f>
         <v>Mustár Márta</v>
       </c>
-      <c r="B13">
+      <c r="B13" s="1">
         <f>'1fordulo'!F13</f>
         <v>38.5</v>
       </c>
-      <c r="C13">
+      <c r="C13" s="1">
         <f>'2fordulo'!F13</f>
         <v>35.5</v>
       </c>
-      <c r="D13">
+      <c r="D13" s="1">
         <f>'3fordulo'!F13</f>
         <v>27</v>
       </c>
-      <c r="E13">
-        <f t="shared" si="0"/>
-        <v>65.5</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A14" t="str">
+      <c r="E13" s="1">
+        <f t="shared" si="0"/>
+        <v>101</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A14" s="1" t="str">
         <f>'1fordulo'!A14</f>
         <v>Pécsi Péter</v>
       </c>
-      <c r="B14">
+      <c r="B14" s="1">
         <f>'1fordulo'!F14</f>
         <v>0</v>
       </c>
-      <c r="C14">
+      <c r="C14" s="1">
         <f>'2fordulo'!F14</f>
         <v>0</v>
       </c>
-      <c r="D14">
+      <c r="D14" s="1">
         <f>'3fordulo'!F14</f>
         <v>0</v>
       </c>
-      <c r="E14">
+      <c r="E14" s="1">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A15" t="str">
+    <row r="15" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A15" s="1" t="str">
         <f>'1fordulo'!A15</f>
         <v>Reszet Elek</v>
       </c>
-      <c r="B15">
+      <c r="B15" s="1">
         <f>'1fordulo'!F15</f>
         <v>29</v>
       </c>
-      <c r="C15">
+      <c r="C15" s="1">
         <f>'2fordulo'!F15</f>
         <v>40</v>
       </c>
-      <c r="D15">
+      <c r="D15" s="1">
         <f>'3fordulo'!F15</f>
         <v>38</v>
       </c>
-      <c r="E15">
-        <f t="shared" si="0"/>
-        <v>67</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A16" t="str">
+      <c r="E15" s="1">
+        <f t="shared" si="0"/>
+        <v>107</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A16" s="1" t="str">
         <f>'1fordulo'!A16</f>
         <v>Ultra Viola</v>
       </c>
-      <c r="B16">
+      <c r="B16" s="1">
         <f>'1fordulo'!F16</f>
         <v>35</v>
       </c>
-      <c r="C16">
+      <c r="C16" s="1">
         <f>'2fordulo'!F16</f>
         <v>39</v>
       </c>
-      <c r="D16">
+      <c r="D16" s="1">
         <f>'3fordulo'!F16</f>
         <v>39</v>
       </c>
-      <c r="E16">
-        <f t="shared" si="0"/>
-        <v>74</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A17" t="str">
+      <c r="E16" s="1">
+        <f t="shared" si="0"/>
+        <v>113</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A17" s="1" t="str">
         <f>'1fordulo'!A17</f>
         <v>Wincs Eszter</v>
       </c>
-      <c r="B17">
+      <c r="B17" s="1">
         <f>'1fordulo'!F17</f>
         <v>13</v>
       </c>
-      <c r="C17">
+      <c r="C17" s="1">
         <f>'2fordulo'!F17</f>
         <v>18.5</v>
       </c>
-      <c r="D17">
+      <c r="D17" s="1">
         <f>'3fordulo'!F17</f>
         <v>0</v>
       </c>
-      <c r="E17">
-        <f t="shared" si="0"/>
-        <v>13</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A18" t="str">
+      <c r="E17" s="1">
+        <f t="shared" si="0"/>
+        <v>31.5</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A18" s="3" t="str">
         <f>'1fordulo'!A18</f>
         <v>Zöld Piroska</v>
       </c>
-      <c r="B18">
+      <c r="B18" s="3">
         <f>'1fordulo'!F18</f>
         <v>40</v>
       </c>
-      <c r="C18">
+      <c r="C18" s="3">
         <f>'2fordulo'!F18</f>
         <v>28</v>
       </c>
-      <c r="D18">
+      <c r="D18" s="3">
         <f>'3fordulo'!F18</f>
         <v>31</v>
       </c>
-      <c r="E18">
-        <f t="shared" si="0"/>
-        <v>71</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
+      <c r="E18" s="3">
+        <f t="shared" si="0"/>
+        <v>99</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A19" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="B19" s="1">
+      <c r="B19" s="4">
         <f>AVERAGEIF(B3:B18,"&gt;0")</f>
         <v>34.6</v>
       </c>
-      <c r="C19" s="1">
+      <c r="C19" s="4">
         <f t="shared" ref="C19:D19" si="1">AVERAGEIF(C3:C18,"&gt;0")</f>
         <v>30.357142857142858</v>
       </c>
-      <c r="D19" s="1">
+      <c r="D19" s="4">
         <f t="shared" si="1"/>
         <v>33.269230769230766</v>
       </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E19" s="2"/>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A23">
         <v>100.5</v>
       </c>
       <c r="B23">
         <v>120</v>
       </c>
-      <c r="C23">
-        <f>COUNTIFS($E$3:$E$18,"&gt;A23",$E$3:$E$18,"&lt;B23")</f>
+      <c r="C23" s="5">
+        <f>COUNTIFS($E$3:$E$18,"&gt;="&amp;A23,$E$3:$E$18,"&lt;"&amp;B23)</f>
+        <v>7</v>
+      </c>
+      <c r="D23">
+        <f>COUNTIFS($E$3:$E$18,"&gt;A23")</f>
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A24">
         <v>80.5</v>
       </c>
       <c r="B24">
         <v>100</v>
       </c>
-      <c r="C24">
-        <f t="shared" ref="C24:C26" si="2">COUNTIFS($E$3:$E$18,"&gt;A23",$E$3:$E$18,"&lt;B23")</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C24" s="5">
+        <f t="shared" ref="C24:C26" si="2">COUNTIFS($E$3:$E$18,"&gt;="&amp;A24,$E$3:$E$18,"&lt;"&amp;B24)</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A25">
         <v>60.5</v>
       </c>
       <c r="B25">
         <v>80</v>
       </c>
-      <c r="C25">
+      <c r="C25" s="5">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A26">
         <v>0</v>
       </c>
       <c r="B26">
         <v>60</v>
       </c>
-      <c r="C26">
+      <c r="C26" s="5">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" ht="18.5" x14ac:dyDescent="0.45">
+      <c r="A28" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="B28" t="s">
+      <c r="B28" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="C28" t="s">
+      <c r="C28" s="8" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A29">
+    <row r="29" spans="1:5" ht="18.5" x14ac:dyDescent="0.45">
+      <c r="A29" s="6">
         <v>1</v>
       </c>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A30">
+      <c r="B29" s="7">
+        <f>LARGE($E$3:$E$18,A29)</f>
+        <v>117</v>
+      </c>
+      <c r="C29" s="8" t="str">
+        <f>INDEX($A$3:$A$18,MATCH(B29,$E$3:$E$18,0))</f>
+        <v>Esztergom Andrea</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" ht="18.5" x14ac:dyDescent="0.45">
+      <c r="A30" s="6">
         <v>2</v>
       </c>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A31">
+      <c r="B30" s="7">
+        <f t="shared" ref="B30:B31" si="3">LARGE($E$3:$E$18,A30)</f>
+        <v>115.5</v>
+      </c>
+      <c r="C30" s="8" t="str">
+        <f t="shared" ref="C30:C31" si="4">INDEX($A$3:$A$18,MATCH(B30,$E$3:$E$18,0))</f>
+        <v>Esztergom Eszter</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" ht="18.5" x14ac:dyDescent="0.45">
+      <c r="A31" s="6">
         <v>3</v>
+      </c>
+      <c r="B31" s="7">
+        <f t="shared" si="3"/>
+        <v>114.5</v>
+      </c>
+      <c r="C31" s="8" t="str">
+        <f t="shared" si="4"/>
+        <v>Kala Pál</v>
       </c>
     </row>
   </sheetData>
